--- a/Test-Case.xlsx
+++ b/Test-Case.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/new1/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Desktop/QA Doc/Тестовое задание PANDA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACB697FE-CCC3-924F-876D-7AE5F0F929DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4442D794-E4AF-8445-A8E0-553BCFE4B8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2020" windowWidth="27640" windowHeight="16860" xr2:uid="{1A469E38-5BB5-3A4E-B303-3FD43F145147}"/>
+    <workbookView xWindow="400" yWindow="500" windowWidth="27640" windowHeight="16860" xr2:uid="{1A469E38-5BB5-3A4E-B303-3FD43F145147}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases " sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ID</t>
   </si>
@@ -52,88 +52,36 @@
     <t>Expected results</t>
   </si>
   <si>
-    <t>Registation a new user</t>
-  </si>
-  <si>
-    <t>User on https://demo.guru99.com/telecom/index.html</t>
-  </si>
-  <si>
-    <t>1) First Name:  TestName                                               2) Last Name:  TestLastName                                               3) Email: test@gmail.com                  4) Address : Test Address                                              5) Mobile number: 12345678</t>
-  </si>
-  <si>
-    <t>1. Click the "Add customer" button
-2. Choose a "Backgroung check"
-3. Input a First Name from test data
-4. Input a Last Name from test data
-5. Input a Email from test data
-6. Input a Address from test data
-7. Input a Mobile number from test data 
-8. Click the "Submit" button
-9. Check a mailbox 
-10. Copy a verification code and fill in a verification window
-11. Click the 'Verify email' button
-12. Log out
-13. Try to log in witn user credentials</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Основной текст)"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">1. The main page is opened
-2. The Add customer window is opened
-3. The "Backgroung check"  Radio is available  
-4. The First Name is displayed withoout error message All validations are OK
-4. The Last Name is displayed withoout error message All validations are OK 
-4. The email is displayed withoout error message All validations are OK 
-6. The verification window is dispalyed. The 'Verify Email' button is available  
-7. The verification code was received  
-8. The 'Verify' button is active 
-9. The new customer was registered 
-10. The user is logged out </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+    <t>Можливість вибору  платіжної системи.                                (Possibility of choosing a payment system)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Користувач знаходиться на  https://Testtransaction.com (як приклад)                                                                                                       User on  https://Testtransaction.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Натиснути на "VISA International Service Association" кнопку (press the "VISA International Service Association" button)
+2. Натиснути на "Mastercard" кнопку                                             (press the "Mastercard " button)
+3. Натиснути на "JCB" кнопку                                                                    (press the "JCB " button)
+4. Натиснути на "American Express" кнопку                                       (press the "American Express " button)
+5. Натиснути на "Diners Club International" кнопку                              (press the "Diners Club International" button)
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Основной текст)"/>
-        <charset val="204"/>
-      </rPr>
-      <t>11. The user is logged in without error messages</t>
-    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Платіжна система "VISA International Service Association" успішно обрана                                                                                                                                 ( Payment system "VISA International Service Association" successfully selected)
+2. Платіжна система "Mastercard" успішно обрана                                                                   ( Payment system "Mastercard" successfully selected)
+3. Платіжна система "JCB" успішно обрана                                                                         ( Payment system "JCB" successfully selected)
+4. Платіжна система "American Express" успішно обрана                                                 ( Payment system "American Express" successfully selected)
+5. Платіжна система "Diners Club International" успішно обрана                                  ( Payment system "Diners Club International)
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -154,18 +102,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri (Основной текст)"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -191,39 +139,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -536,19 +477,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BBB14E-06BD-1448-8F23-97943E7455DB}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="3" width="54.1640625" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="39.33203125" customWidth="1"/>
-    <col min="6" max="6" width="126.6640625" customWidth="1"/>
+    <col min="5" max="5" width="54.33203125" customWidth="1"/>
+    <col min="6" max="6" width="67.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -571,7 +513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="238" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="187" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -581,20 +523,18 @@
       <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>10</v>
-      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="7"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{BDD46995-A2D7-DD44-A362-0BCFF5B476D2}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>